--- a/plan/1.컨텐츠/지역 레벨 디자인/푸른 숲 마을.xlsx
+++ b/plan/1.컨텐츠/지역 레벨 디자인/푸른 숲 마을.xlsx
@@ -3048,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AZ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI92" sqref="AI92"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BQ47" sqref="BQ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/plan/1.컨텐츠/지역 레벨 디자인/푸른 숲 마을.xlsx
+++ b/plan/1.컨텐츠/지역 레벨 디자인/푸른 숲 마을.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\innertron__001PC\Documents\GitHub\gamebusdriver\plan\1.컨텐츠\지역 레벨 디자인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leinster\Documents\GitHub\gamebusdriver\plan\1.컨텐츠\지역 레벨 디자인\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"> - 지역 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 권장 레벨 : 1 ~ 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 지역 개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,18 @@
   </si>
   <si>
     <t>4. 그래픽 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 후방으로는 높은 산, 전방으로는 깊은 강이 흐르는 전형적인 배산임수의 지형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 고지대에 위치하고 있어서 농가가 아닌 성 주변의 지역들의 산에는 눈이 쌓여있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 권장 레벨 : 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -345,11 +353,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -411,6 +481,30 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -437,24 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,10 +568,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,85 +1242,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>96212</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>96212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>153940</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>38485</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="모서리가 둥근 사각형 설명선[R] 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6792576" y="20878030"/>
-          <a:ext cx="1443182" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -73333"/>
-            <a:gd name="adj2" fmla="val 89773"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>거대한 비석으로 인해 외부로의 길이 단절됨</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
       <xdr:colOff>38485</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
@@ -1714,7 +1723,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>왕의 처소이제 도시의 신전같은 곳</a:t>
+            <a:t>왕의 처소</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 도시의 신전같은 곳</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2688,10 +2713,10 @@
       <xdr:rowOff>46221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>137496</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:rowOff>3743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2720,8 +2745,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4422642" y="23409685"/>
-          <a:ext cx="4423425" cy="2430279"/>
+          <a:off x="4375313" y="23469438"/>
+          <a:ext cx="4089513" cy="2276653"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2732,16 +2757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>103919</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>21093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>65840</xdr:rowOff>
+      <xdr:colOff>85202</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2770,14 +2795,225 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144000" y="23236062"/>
-          <a:ext cx="3633108" cy="2043814"/>
+          <a:off x="8572499" y="23444310"/>
+          <a:ext cx="4002877" cy="2281473"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133359</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>63834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>191087</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>6107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="모서리가 둥근 사각형 설명선[R] 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B421AA-CF22-4C29-9C3F-15419A6BD30D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3578924" y="20936008"/>
+          <a:ext cx="1349815" cy="638012"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 107682"/>
+            <a:gd name="adj2" fmla="val 219592"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>아주 깊은 강 위로 철교</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="직사각형 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15F273A-A695-4602-B700-EF1F0DB3D3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5284304" y="12299674"/>
+          <a:ext cx="960783" cy="207065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>98564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>48867</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>131695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="직사각형 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1844E354-0238-4157-A470-C53F87C9F897}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5279334" y="12302988"/>
+          <a:ext cx="960783" cy="207065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3046,10 +3282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AZ101"/>
+  <dimension ref="B2:AZ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BQ47" sqref="BQ47"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BI82" sqref="BI82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3059,7 +3295,7 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3079,7 +3315,7 @@
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3094,548 +3330,548 @@
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="35"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="42" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="42" t="s">
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="47"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
     </row>
     <row r="18" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="31"/>
+    </row>
+    <row r="20" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="34"/>
+    </row>
+    <row r="21" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="34"/>
+    </row>
+    <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="34"/>
+    </row>
+    <row r="23" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="34"/>
+    </row>
+    <row r="24" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="34"/>
+    </row>
+    <row r="25" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="34"/>
+    </row>
+    <row r="26" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="34"/>
+    </row>
+    <row r="27" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="34"/>
+    </row>
+    <row r="28" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="34"/>
+    </row>
+    <row r="29" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="34"/>
+    </row>
+    <row r="30" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="34"/>
+    </row>
+    <row r="31" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="34"/>
+    </row>
+    <row r="32" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="34"/>
+    </row>
+    <row r="33" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="34"/>
+    </row>
+    <row r="34" spans="2:52" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="37"/>
+    </row>
+    <row r="36" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="23"/>
-    </row>
-    <row r="20" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="26"/>
-    </row>
-    <row r="21" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="26"/>
-    </row>
-    <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="26"/>
-    </row>
-    <row r="23" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="26"/>
-    </row>
-    <row r="24" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="26"/>
-    </row>
-    <row r="25" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="26"/>
-    </row>
-    <row r="26" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="26"/>
-    </row>
-    <row r="27" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="26"/>
-    </row>
-    <row r="28" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="26"/>
-    </row>
-    <row r="29" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="26"/>
-    </row>
-    <row r="30" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="26"/>
-    </row>
-    <row r="31" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="26"/>
-    </row>
-    <row r="32" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="26"/>
-    </row>
-    <row r="33" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="26"/>
-    </row>
-    <row r="34" spans="2:52" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="29"/>
-    </row>
-    <row r="36" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="37" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5358,25 +5594,25 @@
       <c r="C72" s="3"/>
       <c r="D72" s="8"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="49"/>
-      <c r="U72" s="49"/>
-      <c r="V72" s="49"/>
-      <c r="W72" s="49"/>
-      <c r="X72" s="49"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
       <c r="Y72" s="12"/>
       <c r="Z72" s="12"/>
       <c r="AA72" s="6"/>
@@ -5410,25 +5646,25 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="49"/>
-      <c r="U73" s="49"/>
-      <c r="V73" s="49"/>
-      <c r="W73" s="49"/>
-      <c r="X73" s="49"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="22"/>
+      <c r="X73" s="22"/>
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
       <c r="AA73" s="6"/>
@@ -5462,25 +5698,25 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="49"/>
-      <c r="U74" s="49"/>
-      <c r="V74" s="49"/>
-      <c r="W74" s="49"/>
-      <c r="X74" s="49"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="22"/>
       <c r="Y74" s="12"/>
       <c r="Z74" s="12"/>
       <c r="AA74" s="6"/>
@@ -5514,9 +5750,9 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -5566,25 +5802,25 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="12"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
       <c r="I76" s="6"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="49"/>
-      <c r="T76" s="49"/>
-      <c r="U76" s="49"/>
-      <c r="V76" s="49"/>
-      <c r="W76" s="49"/>
-      <c r="X76" s="49"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="22"/>
       <c r="Y76" s="12"/>
       <c r="Z76" s="12"/>
       <c r="AA76" s="6"/>
@@ -5594,13 +5830,13 @@
       <c r="AE76" s="12"/>
       <c r="AF76" s="12"/>
       <c r="AG76" s="12"/>
-      <c r="AH76" s="48"/>
-      <c r="AI76" s="48"/>
-      <c r="AJ76" s="48"/>
-      <c r="AK76" s="48"/>
-      <c r="AL76" s="48"/>
-      <c r="AM76" s="48"/>
-      <c r="AN76" s="48"/>
+      <c r="AH76" s="21"/>
+      <c r="AI76" s="21"/>
+      <c r="AJ76" s="21"/>
+      <c r="AK76" s="21"/>
+      <c r="AL76" s="21"/>
+      <c r="AM76" s="21"/>
+      <c r="AN76" s="21"/>
       <c r="AO76" s="12"/>
       <c r="AP76" s="6"/>
       <c r="AQ76" s="9"/>
@@ -5618,25 +5854,25 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
       <c r="I77" s="6"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="49"/>
-      <c r="Q77" s="49"/>
-      <c r="R77" s="49"/>
-      <c r="S77" s="49"/>
-      <c r="T77" s="49"/>
-      <c r="U77" s="49"/>
-      <c r="V77" s="49"/>
-      <c r="W77" s="49"/>
-      <c r="X77" s="49"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="22"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
       <c r="Y77" s="12"/>
       <c r="Z77" s="12"/>
       <c r="AA77" s="6"/>
@@ -5646,13 +5882,13 @@
       <c r="AE77" s="12"/>
       <c r="AF77" s="12"/>
       <c r="AG77" s="12"/>
-      <c r="AH77" s="48"/>
+      <c r="AH77" s="21"/>
       <c r="AI77" s="9"/>
       <c r="AJ77" s="9"/>
       <c r="AK77" s="12"/>
       <c r="AL77" s="12"/>
       <c r="AM77" s="12"/>
-      <c r="AN77" s="48"/>
+      <c r="AN77" s="21"/>
       <c r="AO77" s="12"/>
       <c r="AP77" s="6"/>
       <c r="AQ77" s="12"/>
@@ -5670,25 +5906,25 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="49"/>
-      <c r="R78" s="49"/>
-      <c r="S78" s="49"/>
-      <c r="T78" s="49"/>
-      <c r="U78" s="49"/>
-      <c r="V78" s="49"/>
-      <c r="W78" s="49"/>
-      <c r="X78" s="49"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="22"/>
       <c r="Y78" s="12"/>
       <c r="Z78" s="12"/>
       <c r="AA78" s="6"/>
@@ -5698,13 +5934,13 @@
       <c r="AE78" s="12"/>
       <c r="AF78" s="12"/>
       <c r="AG78" s="12"/>
-      <c r="AH78" s="48"/>
+      <c r="AH78" s="21"/>
       <c r="AI78" s="9"/>
       <c r="AJ78" s="9"/>
       <c r="AK78" s="12"/>
       <c r="AL78" s="12"/>
       <c r="AM78" s="12"/>
-      <c r="AN78" s="48"/>
+      <c r="AN78" s="21"/>
       <c r="AO78" s="12"/>
       <c r="AP78" s="6"/>
       <c r="AQ78" s="9"/>
@@ -5722,25 +5958,25 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
       <c r="I79" s="6"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="49"/>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="49"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="49"/>
-      <c r="T79" s="49"/>
-      <c r="U79" s="49"/>
-      <c r="V79" s="49"/>
-      <c r="W79" s="49"/>
-      <c r="X79" s="49"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="22"/>
+      <c r="U79" s="22"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22"/>
+      <c r="X79" s="22"/>
       <c r="Y79" s="12"/>
       <c r="Z79" s="12"/>
       <c r="AA79" s="6"/>
@@ -5750,13 +5986,13 @@
       <c r="AE79" s="12"/>
       <c r="AF79" s="12"/>
       <c r="AG79" s="12"/>
-      <c r="AH79" s="48"/>
-      <c r="AI79" s="48"/>
-      <c r="AJ79" s="48"/>
-      <c r="AK79" s="48"/>
-      <c r="AL79" s="48"/>
-      <c r="AM79" s="48"/>
-      <c r="AN79" s="48"/>
+      <c r="AH79" s="21"/>
+      <c r="AI79" s="21"/>
+      <c r="AJ79" s="21"/>
+      <c r="AK79" s="21"/>
+      <c r="AL79" s="21"/>
+      <c r="AM79" s="21"/>
+      <c r="AN79" s="21"/>
       <c r="AO79" s="12"/>
       <c r="AP79" s="6"/>
       <c r="AQ79" s="12"/>
@@ -5774,9 +6010,9 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="12"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -5826,25 +6062,25 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="49"/>
-      <c r="O81" s="49"/>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="49"/>
-      <c r="R81" s="49"/>
-      <c r="S81" s="49"/>
-      <c r="T81" s="49"/>
-      <c r="U81" s="49"/>
-      <c r="V81" s="49"/>
-      <c r="W81" s="49"/>
-      <c r="X81" s="49"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
       <c r="Y81" s="12"/>
       <c r="Z81" s="12"/>
       <c r="AA81" s="6"/>
@@ -5878,25 +6114,25 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="49"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="49"/>
-      <c r="R82" s="49"/>
-      <c r="S82" s="49"/>
-      <c r="T82" s="49"/>
-      <c r="U82" s="49"/>
-      <c r="V82" s="49"/>
-      <c r="W82" s="49"/>
-      <c r="X82" s="49"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
       <c r="Y82" s="12"/>
       <c r="Z82" s="12"/>
       <c r="AA82" s="6"/>
@@ -5930,25 +6166,25 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="49"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="49"/>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="49"/>
-      <c r="R83" s="49"/>
-      <c r="S83" s="49"/>
-      <c r="T83" s="49"/>
-      <c r="U83" s="49"/>
-      <c r="V83" s="49"/>
-      <c r="W83" s="49"/>
-      <c r="X83" s="49"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
       <c r="Y83" s="12"/>
       <c r="Z83" s="12"/>
       <c r="AA83" s="6"/>
@@ -5982,25 +6218,25 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="49"/>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="49"/>
-      <c r="R84" s="49"/>
-      <c r="S84" s="49"/>
-      <c r="T84" s="49"/>
-      <c r="U84" s="49"/>
-      <c r="V84" s="49"/>
-      <c r="W84" s="49"/>
-      <c r="X84" s="49"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
       <c r="Y84" s="12"/>
       <c r="Z84" s="12"/>
       <c r="AA84" s="6"/>
@@ -6034,29 +6270,29 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="49"/>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="49"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="49"/>
-      <c r="T85" s="49"/>
-      <c r="U85" s="49"/>
-      <c r="V85" s="49"/>
-      <c r="W85" s="49"/>
-      <c r="X85" s="49"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="22"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="22"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="22"/>
+      <c r="X85" s="22"/>
       <c r="Y85" s="12"/>
-      <c r="Z85" s="9"/>
-      <c r="AA85" s="9"/>
-      <c r="AB85" s="9"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="12"/>
       <c r="AC85" s="12"/>
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
@@ -6106,9 +6342,9 @@
       <c r="W86" s="12"/>
       <c r="X86" s="12"/>
       <c r="Y86" s="12"/>
-      <c r="Z86" s="9"/>
-      <c r="AA86" s="9"/>
-      <c r="AB86" s="9"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="12"/>
       <c r="AC86" s="12"/>
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
@@ -6238,11 +6474,29 @@
       <c r="AY88" s="3"/>
       <c r="AZ88" s="3"/>
     </row>
+    <row r="89" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="53"/>
+      <c r="AZ89" s="50"/>
+    </row>
+    <row r="90" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="54"/>
+      <c r="AZ90" s="51"/>
+    </row>
+    <row r="91" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="54"/>
+      <c r="AZ91" s="51"/>
+    </row>
+    <row r="92" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="54"/>
+      <c r="AZ92" s="52"/>
+    </row>
     <row r="93" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="54"/>
       <c r="AQ93" s="18"/>
       <c r="AZ93" s="18"/>
     </row>
     <row r="94" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="54"/>
       <c r="AD94" s="18"/>
       <c r="AQ94" s="15"/>
       <c r="AR94" s="15"/>
@@ -6256,6 +6510,7 @@
       <c r="AZ94" s="15"/>
     </row>
     <row r="95" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="54"/>
       <c r="AD95" s="15"/>
       <c r="AE95" s="15"/>
       <c r="AF95" s="15"/>
@@ -6281,6 +6536,7 @@
       <c r="AZ95" s="15"/>
     </row>
     <row r="96" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="55"/>
       <c r="P96" s="8"/>
       <c r="AB96" s="17"/>
       <c r="AC96" s="3"/>
@@ -6309,7 +6565,8 @@
       <c r="AZ96" s="8"/>
     </row>
     <row r="97" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="8"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="8"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
@@ -6454,7 +6711,17 @@
     </row>
     <row r="101" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/plan/1.컨텐츠/지역 레벨 디자인/푸른 숲 마을.xlsx
+++ b/plan/1.컨텐츠/지역 레벨 디자인/푸른 숲 마을.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -487,6 +487,24 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,24 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3284,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AZ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BI82" sqref="BI82"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U88" sqref="U88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3330,116 +3330,116 @@
     </row>
     <row r="9" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="28"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="44" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="44" t="s">
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
     </row>
     <row r="18" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
@@ -3447,422 +3447,422 @@
       </c>
     </row>
     <row r="19" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="31"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="37"/>
     </row>
     <row r="20" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="34"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="40"/>
     </row>
     <row r="21" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="34"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="40"/>
     </row>
     <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="34"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="40"/>
     </row>
     <row r="23" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="34"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="40"/>
     </row>
     <row r="24" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="34"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="40"/>
     </row>
     <row r="25" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="34"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="40"/>
     </row>
     <row r="26" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="34"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="40"/>
     </row>
     <row r="27" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="34"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="40"/>
     </row>
     <row r="28" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="34"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="40"/>
     </row>
     <row r="29" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="34"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="40"/>
     </row>
     <row r="30" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="34"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="40"/>
     </row>
     <row r="31" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="34"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="40"/>
     </row>
     <row r="32" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="34"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="40"/>
     </row>
     <row r="33" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="34"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="40"/>
     </row>
     <row r="34" spans="2:52" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="37"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="43"/>
     </row>
     <row r="36" spans="2:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -6475,28 +6475,28 @@
       <c r="AZ88" s="3"/>
     </row>
     <row r="89" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="53"/>
-      <c r="AZ89" s="50"/>
+      <c r="C89" s="26"/>
+      <c r="AZ89" s="23"/>
     </row>
     <row r="90" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="54"/>
-      <c r="AZ90" s="51"/>
+      <c r="C90" s="27"/>
+      <c r="AZ90" s="24"/>
     </row>
     <row r="91" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="54"/>
-      <c r="AZ91" s="51"/>
+      <c r="C91" s="27"/>
+      <c r="AZ91" s="24"/>
     </row>
     <row r="92" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="54"/>
-      <c r="AZ92" s="52"/>
+      <c r="C92" s="27"/>
+      <c r="AZ92" s="25"/>
     </row>
     <row r="93" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="54"/>
+      <c r="C93" s="27"/>
       <c r="AQ93" s="18"/>
       <c r="AZ93" s="18"/>
     </row>
     <row r="94" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="54"/>
+      <c r="C94" s="27"/>
       <c r="AD94" s="18"/>
       <c r="AQ94" s="15"/>
       <c r="AR94" s="15"/>
@@ -6510,7 +6510,7 @@
       <c r="AZ94" s="15"/>
     </row>
     <row r="95" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="54"/>
+      <c r="C95" s="27"/>
       <c r="AD95" s="15"/>
       <c r="AE95" s="15"/>
       <c r="AF95" s="15"/>
@@ -6536,7 +6536,7 @@
       <c r="AZ95" s="15"/>
     </row>
     <row r="96" spans="3:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="55"/>
+      <c r="C96" s="28"/>
       <c r="P96" s="8"/>
       <c r="AB96" s="17"/>
       <c r="AC96" s="3"/>
